--- a/SPRINT 2/1-Planificacion/Pilas del Sprint 2/Pila del Sprint 2 Semana 3 - SCRUM Camilo Agudelo.xlsx
+++ b/SPRINT 2/1-Planificacion/Pilas del Sprint 2/Pila del Sprint 2 Semana 3 - SCRUM Camilo Agudelo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\ACER-PC\Documents\LABORATORIO DE SOFTWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Camilo\Documents\SourceTree\LaboratorioSW\SPRINT 2\1-Planificacion\Pilas del Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,6 +644,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,38 +659,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,59 +1017,59 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="35"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1473,58 +1473,58 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="35"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1569,10 +1569,14 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K32" si="1">J17-(SUM(L17:O17))</f>
-        <v>3</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
@@ -1607,10 +1611,14 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
@@ -1645,10 +1653,14 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
     </row>
@@ -1683,10 +1695,14 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20" s="11">
+        <v>2</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
     </row>
@@ -2148,18 +2164,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2172,6 +2176,18 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
